--- a/src/main/resources/templateexcel/template_import_employee.xlsx
+++ b/src/main/resources/templateexcel/template_import_employee.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\HRMS__api\src\main\resources\templateexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49595A0-2D05-4985-880D-4F90634AADD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD659E-94C6-4459-9737-3E7B1E5EE4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4507D29B-2234-4BC5-96AD-00132D3DA5AF}"/>
   </bookViews>
@@ -16,9 +16,14 @@
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Department">OFFSET(Note!$A$1,1,0,COUNTA(Note!$A:$A)-1,1)</definedName>
+    <definedName name="Position">OFFSET(Note!$D$1,1,0,COUNTA(Note!$D:$D)-1,1)</definedName>
+    <definedName name="Rank">OFFSET(Note!$H$1,1,0,COUNTA(Note!$H:$H)-1,1)</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Date Of Birth</t>
   </si>
@@ -68,12 +73,73 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>Is Active</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Department ID</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Position ID</t>
+  </si>
+  <si>
+    <t>Position Name</t>
+  </si>
+  <si>
+    <t>Rank ID</t>
+  </si>
+  <si>
+    <t>Rank Name</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>HR &amp; Admin</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Front-end developer</t>
+  </si>
+  <si>
+    <t>Back-end developer</t>
+  </si>
+  <si>
+    <t>Full-stack developer</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Fresher</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,76 +487,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C0A41A-B981-463D-9DF3-A72C028F10D8}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="10.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="7" max="7" style="2" width="8.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" style="1" width="8.88671875" collapsed="true"/>
+    <col min="12" max="12" style="2" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="10.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{68198454-5302-41B2-8DF8-5000AA8CA4D2}">
+      <formula1>Department</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{84515AC2-4BBD-491D-ADCF-054A22C4A10E}">
+      <formula1>Position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{C8023D2D-F2D8-425D-9D06-32045A9CFCD2}">
+      <formula1>Rank</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -498,12 +582,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2059F9E-AE27-4782-A567-C41284D7B332}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/templateexcel/template_import_employee.xlsx
+++ b/src/main/resources/templateexcel/template_import_employee.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\HRMS__api\src\main\resources\templateexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD659E-94C6-4459-9737-3E7B1E5EE4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0AEB2-9488-46D5-AA89-5C9EBB3135C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4507D29B-2234-4BC5-96AD-00132D3DA5AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Department">OFFSET(Note!$A$1,1,0,COUNTA(Note!$A:$A)-1,1)</definedName>
-    <definedName name="Position">OFFSET(Note!$D$1,1,0,COUNTA(Note!$D:$D)-1,1)</definedName>
-    <definedName name="Rank">OFFSET(Note!$H$1,1,0,COUNTA(Note!$H:$H)-1,1)</definedName>
+    <definedName name="Department">OFFSET(Note!#REF!,1,0,COUNTA(Note!#REF!)-1,1)</definedName>
+    <definedName name="Gender">OFFSET(Note!$H$1,1,0,COUNTA(Note!$H:$H)-1,1)</definedName>
+    <definedName name="Is_Active">OFFSET(Note!$N$1,1,0,COUNTA(Note!$N:$N)-1,1)</definedName>
+    <definedName name="Is_Manager">OFFSET(Note!$K$1,1,0,COUNTA(Note!$K:$K)-1,1)</definedName>
+    <definedName name="Position">OFFSET(Note!$A$1,1,0,COUNTA(Note!$A:$A)-1,1)</definedName>
+    <definedName name="Rank">OFFSET(Note!$E$1,1,0,COUNTA(Note!$E:$E)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Date Of Birth</t>
   </si>
   <si>
-    <t>Manager Id</t>
-  </si>
-  <si>
     <t>Department Id</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
     <t>Department ID</t>
   </si>
   <si>
-    <t>Department Name</t>
-  </si>
-  <si>
     <t>Position ID</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>Rank Name</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>HR &amp; Admin</t>
-  </si>
-  <si>
     <t>IT Support</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t>Front-end developer</t>
   </si>
   <si>
-    <t>Back-end developer</t>
-  </si>
-  <si>
-    <t>Full-stack developer</t>
-  </si>
-  <si>
     <t>Intern</t>
   </si>
   <si>
@@ -133,13 +118,60 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Gender Code</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Is Manager Code</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Is Active Code</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sale leader</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>Manager Roll Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,15 +181,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,14 +203,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,93 +547,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C0A41A-B981-463D-9DF3-A72C028F10D8}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="19.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="18.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="17.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
-    <col min="7" max="7" style="2" width="8.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" style="1" width="8.88671875" collapsed="true"/>
-    <col min="12" max="12" style="2" width="8.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="10.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="12.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="11" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.88671875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.88671875" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.21875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.77734375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.88671875" style="2" collapsed="1"/>
+    <col min="10" max="10" width="14" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.88671875" style="4" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.88671875" style="4" collapsed="1"/>
+    <col min="21" max="21" width="13.21875" style="6" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="8.88671875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$99,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$99,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H2,Note!$E$2:$F$99,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(N2,Note!$H$2:$I$99,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(R2,Note!$K$2:$L$99,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="U2" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(T2,Note!$N$2:$O$99,2,0),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{68198454-5302-41B2-8DF8-5000AA8CA4D2}">
-      <formula1>Department</formula1>
+  <sheetProtection selectLockedCells="1"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>Rank</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{84515AC2-4BBD-491D-ADCF-054A22C4A10E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{7769D1A1-D22D-421E-95F0-5D3C735AA91C}">
       <formula1>Position</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{C8023D2D-F2D8-425D-9D06-32045A9CFCD2}">
-      <formula1>Rank</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{A9C9BA04-FECC-427D-8775-BEB67F426B78}">
+      <formula1>Gender</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{190C5260-FDE1-48F4-9D4E-467822B86591}">
+      <formula1>Is_Manager</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{D96BF83F-D0F9-42E3-9015-D1095F5B45C5}">
+      <formula1>Is_Active</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,152 +695,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2059F9E-AE27-4782-A567-C41284D7B332}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.0</v>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>82.0</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
+      <c r="F5">
+        <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="D5" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/templateexcel/template_import_employee.xlsx
+++ b/src/main/resources/templateexcel/template_import_employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\HRMS__api\src\main\resources\templateexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0AEB2-9488-46D5-AA89-5C9EBB3135C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB6646-8C95-4F5D-AC06-A687D28E17BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,22 +560,22 @@
     <col min="2" max="2" width="19.88671875" style="4" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.44140625" style="4" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.21875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.77734375" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.88671875" style="2" collapsed="1"/>
+    <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" style="4" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.21875" style="4" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="8.88671875" style="4" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.44140625" style="3" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12" style="3" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="10.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="8.88671875" style="4" collapsed="1"/>
-    <col min="21" max="21" width="13.21875" style="6" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.21875" style="6" hidden="1" customWidth="1" collapsed="1"/>
     <col min="22" max="16384" width="8.88671875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
@@ -671,7 +671,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Rank</formula1>

--- a/src/main/resources/templateexcel/template_import_employee.xlsx
+++ b/src/main/resources/templateexcel/template_import_employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\HRMS__api\src\main\resources\templateexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB6646-8C95-4F5D-AC06-A687D28E17BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000D0FA-D586-43C2-A7F5-33DF5EB0F717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Date Of Birth</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Rank Id</t>
-  </si>
-  <si>
-    <t>On Board Date</t>
   </si>
   <si>
     <t>Citizen Identification</t>
@@ -548,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,44 +562,45 @@
     <col min="7" max="7" width="10.77734375" style="2" hidden="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.77734375" style="3" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.88671875" style="4" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.44140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.88671875" style="4" collapsed="1"/>
-    <col min="21" max="21" width="13.21875" style="6" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="8.88671875" style="6" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.21875" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="8.88671875" style="4" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="2" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16" style="2" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.88671875" style="4" collapsed="1"/>
+    <col min="20" max="20" width="13.21875" style="6" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.88671875" style="6" collapsed="1"/>
+    <col min="22" max="22" width="8.88671875" style="6"/>
+    <col min="23" max="16384" width="8.88671875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -620,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>9</v>
@@ -632,19 +630,16 @@
         <v>10</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$99,3,0),"")</f>
         <v/>
@@ -657,16 +652,16 @@
         <f>_xlfn.IFNA(VLOOKUP(H2,Note!$E$2:$F$99,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(N2,Note!$H$2:$I$99,2,0),"")</f>
+      <c r="N2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(M2,Note!$H$2:$I$99,2,0),"")</f>
         <v/>
       </c>
-      <c r="S2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(R2,Note!$K$2:$L$99,2,0),"")</f>
+      <c r="R2" s="2" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Q2,Note!$K$2:$L$99,2,0),"")</f>
         <v/>
       </c>
-      <c r="U2" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(T2,Note!$N$2:$O$99,2,0),"")</f>
+      <c r="T2" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(S2,Note!$N$2:$O$99,2,0),"")</f>
         <v/>
       </c>
     </row>
@@ -679,13 +674,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{7769D1A1-D22D-421E-95F0-5D3C735AA91C}">
       <formula1>Position</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{A9C9BA04-FECC-427D-8775-BEB67F426B78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{A9C9BA04-FECC-427D-8775-BEB67F426B78}">
       <formula1>Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{190C5260-FDE1-48F4-9D4E-467822B86591}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{190C5260-FDE1-48F4-9D4E-467822B86591}">
       <formula1>Is_Manager</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{D96BF83F-D0F9-42E3-9015-D1095F5B45C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{D96BF83F-D0F9-42E3-9015-D1095F5B45C5}">
       <formula1>Is_Active</formula1>
     </dataValidation>
   </dataValidations>
@@ -718,42 +713,42 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -762,33 +757,33 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>62</v>
@@ -797,33 +792,33 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -832,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -846,7 +841,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>112</v>
@@ -855,7 +850,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -863,7 +858,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/src/main/resources/templateexcel/template_import_employee.xlsx
+++ b/src/main/resources/templateexcel/template_import_employee.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FPTUniversity_Ki_9\SWP\HRMS__api\src\main\resources\templateexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000D0FA-D586-43C2-A7F5-33DF5EB0F717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DFE3BB-D529-4CA6-8652-BE0E4EB8E5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Date Of Birth</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Senior</t>
-  </si>
-  <si>
-    <t>CEO</t>
   </si>
   <si>
     <t>Position</t>
@@ -169,6 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
@@ -553,28 +551,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.21875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.77734375" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.21875" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="8.88671875" style="4" collapsed="1"/>
-    <col min="14" max="14" width="12.44140625" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.44140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" style="2" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.88671875" style="4" collapsed="1"/>
-    <col min="20" max="20" width="13.21875" style="6" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.88671875" style="6" collapsed="1"/>
-    <col min="22" max="22" width="8.88671875" style="6"/>
-    <col min="23" max="16384" width="8.88671875" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="19.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="2" width="17.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="20.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="2" width="10.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="10.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" style="2" width="0.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="13.21875" collapsed="true"/>
+    <col min="12" max="13" style="4" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="10.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="10.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" hidden="true" style="2" width="16.0" collapsed="true"/>
+    <col min="19" max="19" style="4" width="8.88671875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" hidden="true" style="6" width="13.21875" collapsed="true"/>
+    <col min="21" max="21" style="6" width="8.88671875" collapsed="true"/>
+    <col min="22" max="22" style="6" width="8.88671875" collapsed="false"/>
+    <col min="23" max="16384" style="6" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -588,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -618,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>8</v>
@@ -630,38 +628,38 @@
         <v>10</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$99,3,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$98,3,0),"")</f>
         <v/>
       </c>
       <c r="G2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$99,2,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(F2,Note!$A$2:$C$98,2,0),"")</f>
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H2,Note!$E$2:$F$99,2,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H2,Note!$E$2:$F$98,2,0),"")</f>
         <v/>
       </c>
       <c r="N2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M2,Note!$H$2:$I$99,2,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(M2,Note!$H$2:$I$98,2,0),"")</f>
         <v/>
       </c>
       <c r="R2" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q2,Note!$K$2:$L$99,2,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(Q2,Note!$K$2:$L$98,2,0),"")</f>
         <v/>
       </c>
       <c r="T2" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S2,Note!$N$2:$O$99,2,0),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(S2,Note!$N$2:$O$98,2,0),"")</f>
         <v/>
       </c>
     </row>
@@ -691,24 +689,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -731,137 +729,129 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
+      <c r="B3" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35.0</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="n">
+        <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="n">
+        <v>3.0</v>
       </c>
       <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>112</v>
-      </c>
-      <c r="C5">
-        <v>44</v>
+      <c r="B5" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44.0</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
+      <c r="F5" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
